--- a/xlsx/Template_projects.xlsx
+++ b/xlsx/Template_projects.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/o_ugur_exeter_ac_uk/Documents/Desktop/git/metadata-schema/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6792C3D4EBFFAFAE6CF0048CB27E0C16A0D6827E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BBA883-6DDE-4811-A72B-EDEB20B4EBB7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="4530" windowWidth="15285" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,14 +338,6 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,32 +384,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -522,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -716,33 +714,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:L8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -780,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -818,7 +816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -856,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -892,7 +890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -930,7 +928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -968,7 +966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
@@ -1044,8 +1042,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
-    <hyperlink ref="L8" r:id="rId2"/>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
